--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="H2">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="I2">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="J2">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="N2">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="O2">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="P2">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="Q2">
-        <v>7069.033012710071</v>
+        <v>542.2458840341601</v>
       </c>
       <c r="R2">
-        <v>63621.29711439063</v>
+        <v>4880.21295630744</v>
       </c>
       <c r="S2">
-        <v>0.2699545229120733</v>
+        <v>0.05312504342050477</v>
       </c>
       <c r="T2">
-        <v>0.2699545229120733</v>
+        <v>0.05312504342050475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="H3">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="I3">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="J3">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>2.151378</v>
       </c>
       <c r="O3">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="P3">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="Q3">
-        <v>60.29419114525001</v>
+        <v>16.699120576882</v>
       </c>
       <c r="R3">
-        <v>542.6477203072501</v>
+        <v>150.292085191938</v>
       </c>
       <c r="S3">
-        <v>0.002302534105544556</v>
+        <v>0.001636050234500652</v>
       </c>
       <c r="T3">
-        <v>0.002302534105544556</v>
+        <v>0.001636050234500652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="H4">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="I4">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="J4">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +679,22 @@
         <v>231.078796</v>
       </c>
       <c r="O4">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="P4">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="Q4">
-        <v>6476.179032991057</v>
+        <v>1793.646991446746</v>
       </c>
       <c r="R4">
-        <v>58285.61129691951</v>
+        <v>16142.82292302072</v>
       </c>
       <c r="S4">
-        <v>0.2473144230619505</v>
+        <v>0.1757276119695973</v>
       </c>
       <c r="T4">
-        <v>0.2473144230619505</v>
+        <v>0.1757276119695973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>2.151378</v>
       </c>
       <c r="I5">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="J5">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="N5">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="O5">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="P5">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="Q5">
-        <v>60.29419114525001</v>
+        <v>16.699120576882</v>
       </c>
       <c r="R5">
-        <v>542.6477203072501</v>
+        <v>150.292085191938</v>
       </c>
       <c r="S5">
-        <v>0.002302534105544556</v>
+        <v>0.001636050234500652</v>
       </c>
       <c r="T5">
-        <v>0.002302534105544556</v>
+        <v>0.001636050234500652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>2.151378</v>
       </c>
       <c r="I6">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="J6">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>2.151378</v>
       </c>
       <c r="O6">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="P6">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="Q6">
         <v>0.514269699876</v>
@@ -815,10 +815,10 @@
         <v>4.628427298884001</v>
       </c>
       <c r="S6">
-        <v>1.963909791177186E-05</v>
+        <v>5.038415401607977E-05</v>
       </c>
       <c r="T6">
-        <v>1.963909791177187E-05</v>
+        <v>5.038415401607977E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>2.151378</v>
       </c>
       <c r="I7">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="J7">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,10 +865,10 @@
         <v>231.078796</v>
       </c>
       <c r="O7">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="P7">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="Q7">
         <v>55.23753755343201</v>
@@ -877,10 +877,10 @@
         <v>497.1378379808881</v>
       </c>
       <c r="S7">
-        <v>0.00210942897992745</v>
+        <v>0.005411745238407328</v>
       </c>
       <c r="T7">
-        <v>0.00210942897992745</v>
+        <v>0.005411745238407327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,10 +909,10 @@
         <v>231.078796</v>
       </c>
       <c r="I8">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="J8">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.07754166666668</v>
+        <v>23.28617366666667</v>
       </c>
       <c r="N8">
-        <v>252.232625</v>
+        <v>69.858521</v>
       </c>
       <c r="O8">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="P8">
-        <v>0.5195714800795683</v>
+        <v>0.2304887056246027</v>
       </c>
       <c r="Q8">
-        <v>6476.179032991057</v>
+        <v>1793.646991446746</v>
       </c>
       <c r="R8">
-        <v>58285.61129691951</v>
+        <v>16142.82292302072</v>
       </c>
       <c r="S8">
-        <v>0.2473144230619505</v>
+        <v>0.1757276119695973</v>
       </c>
       <c r="T8">
-        <v>0.2473144230619505</v>
+        <v>0.1757276119695973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,10 +971,10 @@
         <v>231.078796</v>
       </c>
       <c r="I9">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="J9">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,10 +989,10 @@
         <v>2.151378</v>
       </c>
       <c r="O9">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="P9">
-        <v>0.004431602183383778</v>
+        <v>0.007098179626924059</v>
       </c>
       <c r="Q9">
         <v>55.23753755343201</v>
@@ -1001,10 +1001,10 @@
         <v>497.1378379808881</v>
       </c>
       <c r="S9">
-        <v>0.00210942897992745</v>
+        <v>0.005411745238407328</v>
       </c>
       <c r="T9">
-        <v>0.00210942897992745</v>
+        <v>0.005411745238407327</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,10 +1033,10 @@
         <v>231.078796</v>
       </c>
       <c r="I10">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="J10">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,10 +1051,10 @@
         <v>231.078796</v>
       </c>
       <c r="O10">
-        <v>0.4759969177370478</v>
+        <v>0.7624131147484733</v>
       </c>
       <c r="P10">
-        <v>0.4759969177370479</v>
+        <v>0.7624131147484732</v>
       </c>
       <c r="Q10">
         <v>5933.045551201069</v>
@@ -1063,10 +1063,10 @@
         <v>53397.40996080962</v>
       </c>
       <c r="S10">
-        <v>0.2265730656951699</v>
+        <v>0.5812737575404687</v>
       </c>
       <c r="T10">
-        <v>0.2265730656951699</v>
+        <v>0.5812737575404685</v>
       </c>
     </row>
   </sheetData>
